--- a/Data/Processing/2024-02-02/IRCTC.xlsx
+++ b/Data/Processing/2024-02-02/IRCTC.xlsx
@@ -819,7 +819,7 @@
         <v>648.72</v>
       </c>
       <c r="D6">
-        <v>629.25</v>
+        <v>629.26</v>
       </c>
       <c r="E6">
         <v>643.53</v>
@@ -849,7 +849,7 @@
         <v>-0.7899999999999998</v>
       </c>
       <c r="N6">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>45141</v>
       </c>
       <c r="B124">
-        <v>633.65</v>
+        <v>633.64</v>
       </c>
       <c r="C124">
         <v>658.13</v>
@@ -6743,7 +6743,7 @@
         <v>-0.45</v>
       </c>
       <c r="L124">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="M124">
         <v>-0.3500000000000001</v>
